--- a/만들고 싶은 게임 기획서와 기타등등/범죄특별반/기획서/김혜령_범죄특별반.xlsx
+++ b/만들고 싶은 게임 기획서와 기타등등/범죄특별반/기획서/김혜령_범죄특별반.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy\아카데미 전체\아카데미 수업내용\게임기획서\범죄특별반\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\만들고 싶은 게임 기획서와 기타등등\범죄특별반\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDB2C99-AA81-4862-8554-220B8D64F640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F547EC-E6AB-4E51-A347-3C40EBA02418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14910" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{C56B3F17-DCB9-47A3-A4C5-E41C144270AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C56B3F17-DCB9-47A3-A4C5-E41C144270AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="범죄 특별반 준비하기" sheetId="1" r:id="rId1"/>
+    <sheet name="범죄 특별반 대충 준비하기" sheetId="1" r:id="rId1"/>
     <sheet name="레퍼런스_미제사건은 끝내야 하니까" sheetId="4" r:id="rId2"/>
     <sheet name="레퍼런스_레이튼교수" sheetId="5" r:id="rId3"/>
-    <sheet name="범죄특별반 기획서" sheetId="3" r:id="rId4"/>
+    <sheet name="범특반 준비하기" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>범죄 특별반 &gt;&gt; 이름이 뭔가 2% 부족하다…......................</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,30 +1093,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범죄 특별반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이 플로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로토타입 마일스톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레이튼 교수와 최후의 시간여행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1170,6 +1146,42 @@
   </si>
   <si>
     <t xml:space="preserve">수수께끼를 풀어가는 추리 어드벤처 게임 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">반전과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천받은 레퍼런스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테퍼 케이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여고추리반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크라임씬 리턴즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총성과 다이아몬드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-- 테러범과 협상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단간론파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역전재판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2056,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFD830-3D16-4B0E-ABFA-94CBCF79D670}">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2403,6 +2415,44 @@
       </c>
       <c r="B160" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="170" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I170" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I171" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I172" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="173" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I173" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I174" t="s">
+        <v>123</v>
+      </c>
+      <c r="K174" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="175" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I175" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="176" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I176" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2468,12 +2518,12 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -2599,77 +2649,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAACDAD-4893-4DE9-AD57-EAF4D9E7A3AF}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2679,46 +2739,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8E0588-54B4-4DE3-BCA4-192ECF5494A4}">
-  <dimension ref="B2:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0495E32-A55E-4EED-9890-880480B618E8}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
